--- a/Data/Summary Table.xlsx
+++ b/Data/Summary Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/OccupationalLicensingBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251CF142-5AE1-2C41-BC1A-B246040A29BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F49D6-3CD9-BC4E-AB44-A8ED149BB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21000" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{38FBEE07-ED32-B541-A624-867B7A55CBB4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{38FBEE07-ED32-B541-A624-867B7A55CBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
